--- a/src/test/resources/excel/april week 1 menu.xlsx
+++ b/src/test/resources/excel/april week 1 menu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\have-a-meal-server\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="조식" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>코스/일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,26 @@
 미트볼조림
 도시락김
 배추김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04월01일 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04월01일 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04월04일 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04월04일 목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +613,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -625,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -633,7 +653,7 @@
     </row>
     <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
@@ -687,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -782,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:BB8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
